--- a/natmiOut/OldD4/LR-pairs_lrc2p/Lgals3-Lag3.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Lgals3-Lag3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Lag3</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>13.5024442900892</v>
+        <v>2.753370666666667</v>
       </c>
       <c r="H2">
-        <v>13.5024442900892</v>
+        <v>8.260111999999999</v>
       </c>
       <c r="I2">
-        <v>0.02280817816763698</v>
+        <v>0.004419655369974358</v>
       </c>
       <c r="J2">
-        <v>0.02280817816763698</v>
+        <v>0.004457275778118894</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.9416243822078</v>
+        <v>8.193219999999998</v>
       </c>
       <c r="N2">
-        <v>7.9416243822078</v>
+        <v>24.57966</v>
       </c>
       <c r="O2">
-        <v>0.2364154422765415</v>
+        <v>0.1855955251559941</v>
       </c>
       <c r="P2">
-        <v>0.2364154422765415</v>
+        <v>0.1965036999288476</v>
       </c>
       <c r="Q2">
-        <v>107.2313407935749</v>
+        <v>22.55897161354666</v>
       </c>
       <c r="R2">
-        <v>107.2313407935749</v>
+        <v>203.03074452192</v>
       </c>
       <c r="S2">
-        <v>0.005392205529024055</v>
+        <v>0.0008202682593989004</v>
       </c>
       <c r="T2">
-        <v>0.005392205529024055</v>
+        <v>0.0008758711820035956</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>13.5024442900892</v>
+        <v>2.753370666666667</v>
       </c>
       <c r="H3">
-        <v>13.5024442900892</v>
+        <v>8.260111999999999</v>
       </c>
       <c r="I3">
-        <v>0.02280817816763698</v>
+        <v>0.004419655369974358</v>
       </c>
       <c r="J3">
-        <v>0.02280817816763698</v>
+        <v>0.004457275778118894</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.24054511864789</v>
+        <v>7.657732666666667</v>
       </c>
       <c r="N3">
-        <v>7.24054511864789</v>
+        <v>22.973198</v>
       </c>
       <c r="O3">
-        <v>0.2155449054457187</v>
+        <v>0.1734654892428388</v>
       </c>
       <c r="P3">
-        <v>0.2155449054457187</v>
+        <v>0.1836607343713461</v>
       </c>
       <c r="Q3">
-        <v>97.76505709442043</v>
+        <v>21.08457649757511</v>
       </c>
       <c r="R3">
-        <v>97.76505709442043</v>
+        <v>189.761188478176</v>
       </c>
       <c r="S3">
-        <v>0.004916186606532419</v>
+        <v>0.0007666576810373417</v>
       </c>
       <c r="T3">
-        <v>0.004916186606532419</v>
+        <v>0.0008186265427049293</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>13.5024442900892</v>
+        <v>2.753370666666667</v>
       </c>
       <c r="H4">
-        <v>13.5024442900892</v>
+        <v>8.260111999999999</v>
       </c>
       <c r="I4">
-        <v>0.02280817816763698</v>
+        <v>0.004419655369974358</v>
       </c>
       <c r="J4">
-        <v>0.02280817816763698</v>
+        <v>0.004457275778118894</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.24630132311307</v>
+        <v>11.307941</v>
       </c>
       <c r="N4">
-        <v>6.24630132311307</v>
+        <v>33.923823</v>
       </c>
       <c r="O4">
-        <v>0.1859471084032545</v>
+        <v>0.2561512138485232</v>
       </c>
       <c r="P4">
-        <v>0.1859471084032545</v>
+        <v>0.2712062223493465</v>
       </c>
       <c r="Q4">
-        <v>84.34033563444468</v>
+        <v>31.13495304979733</v>
       </c>
       <c r="R4">
-        <v>84.34033563444468</v>
+        <v>280.214577448176</v>
       </c>
       <c r="S4">
-        <v>0.004241114778218338</v>
+        <v>0.001132100087811076</v>
       </c>
       <c r="T4">
-        <v>0.004241114778218338</v>
+        <v>0.001208840925752869</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>13.5024442900892</v>
+        <v>2.753370666666667</v>
       </c>
       <c r="H5">
-        <v>13.5024442900892</v>
+        <v>8.260111999999999</v>
       </c>
       <c r="I5">
-        <v>0.02280817816763698</v>
+        <v>0.004419655369974358</v>
       </c>
       <c r="J5">
-        <v>0.02280817816763698</v>
+        <v>0.004457275778118894</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.1111386260584</v>
+        <v>9.634942000000001</v>
       </c>
       <c r="N5">
-        <v>5.1111386260584</v>
+        <v>28.904826</v>
       </c>
       <c r="O5">
-        <v>0.1521542748261263</v>
+        <v>0.2182538880119837</v>
       </c>
       <c r="P5">
-        <v>0.1521542748261263</v>
+        <v>0.2310815224783236</v>
       </c>
       <c r="Q5">
-        <v>69.0128645572766</v>
+        <v>26.52856667783467</v>
       </c>
       <c r="R5">
-        <v>69.0128645572766</v>
+        <v>238.757100100512</v>
       </c>
       <c r="S5">
-        <v>0.003470361809201892</v>
+        <v>0.0009646069681699458</v>
       </c>
       <c r="T5">
-        <v>0.003470361809201892</v>
+        <v>0.001029994072913469</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>13.5024442900892</v>
+        <v>2.753370666666667</v>
       </c>
       <c r="H6">
-        <v>13.5024442900892</v>
+        <v>8.260111999999999</v>
       </c>
       <c r="I6">
-        <v>0.02280817816763698</v>
+        <v>0.004419655369974358</v>
       </c>
       <c r="J6">
-        <v>0.02280817816763698</v>
+        <v>0.004457275778118894</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.05220801221064</v>
+        <v>7.351732999999999</v>
       </c>
       <c r="N6">
-        <v>7.05220801221064</v>
+        <v>14.703466</v>
       </c>
       <c r="O6">
-        <v>0.2099382690483589</v>
+        <v>0.1665338837406602</v>
       </c>
       <c r="P6">
-        <v>0.2099382690483589</v>
+        <v>0.1175478208721362</v>
       </c>
       <c r="Q6">
-        <v>95.22204580699486</v>
+        <v>20.24204599136533</v>
       </c>
       <c r="R6">
-        <v>95.22204580699486</v>
+        <v>121.452275948192</v>
       </c>
       <c r="S6">
-        <v>0.004788309444660278</v>
+        <v>0.0007360223735570946</v>
       </c>
       <c r="T6">
-        <v>0.004788309444660278</v>
+        <v>0.0005239430547440315</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>296.268528431914</v>
+        <v>15.15975766666667</v>
       </c>
       <c r="H7">
-        <v>296.268528431914</v>
+        <v>45.479273</v>
       </c>
       <c r="I7">
-        <v>0.5004534909948573</v>
+        <v>0.02433413894835564</v>
       </c>
       <c r="J7">
-        <v>0.5004534909948573</v>
+        <v>0.02454127279985509</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.9416243822078</v>
+        <v>8.193219999999998</v>
       </c>
       <c r="N7">
-        <v>7.9416243822078</v>
+        <v>24.57966</v>
       </c>
       <c r="O7">
-        <v>0.2364154422765415</v>
+        <v>0.1855955251559941</v>
       </c>
       <c r="P7">
-        <v>0.2364154422765415</v>
+        <v>0.1965036999288476</v>
       </c>
       <c r="Q7">
-        <v>2352.853369075713</v>
+        <v>124.2072297096866</v>
       </c>
       <c r="R7">
-        <v>2352.853369075713</v>
+        <v>1117.86506738718</v>
       </c>
       <c r="S7">
-        <v>0.1183149334123884</v>
+        <v>0.004516307297338996</v>
       </c>
       <c r="T7">
-        <v>0.1183149334123884</v>
+        <v>0.004822450906134713</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>296.268528431914</v>
+        <v>15.15975766666667</v>
       </c>
       <c r="H8">
-        <v>296.268528431914</v>
+        <v>45.479273</v>
       </c>
       <c r="I8">
-        <v>0.5004534909948573</v>
+        <v>0.02433413894835564</v>
       </c>
       <c r="J8">
-        <v>0.5004534909948573</v>
+        <v>0.02454127279985509</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.24054511864789</v>
+        <v>7.657732666666667</v>
       </c>
       <c r="N8">
-        <v>7.24054511864789</v>
+        <v>22.973198</v>
       </c>
       <c r="O8">
-        <v>0.2155449054457187</v>
+        <v>0.1734654892428388</v>
       </c>
       <c r="P8">
-        <v>0.2155449054457187</v>
+        <v>0.1836607343713461</v>
       </c>
       <c r="Q8">
-        <v>2145.145647346688</v>
+        <v>116.0893715027838</v>
       </c>
       <c r="R8">
-        <v>2145.145647346688</v>
+        <v>1044.804343525054</v>
       </c>
       <c r="S8">
-        <v>0.1078702003964663</v>
+        <v>0.00422113331797973</v>
       </c>
       <c r="T8">
-        <v>0.1078702003964663</v>
+        <v>0.004507268184828927</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>296.268528431914</v>
+        <v>15.15975766666667</v>
       </c>
       <c r="H9">
-        <v>296.268528431914</v>
+        <v>45.479273</v>
       </c>
       <c r="I9">
-        <v>0.5004534909948573</v>
+        <v>0.02433413894835564</v>
       </c>
       <c r="J9">
-        <v>0.5004534909948573</v>
+        <v>0.02454127279985509</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.24630132311307</v>
+        <v>11.307941</v>
       </c>
       <c r="N9">
-        <v>6.24630132311307</v>
+        <v>33.923823</v>
       </c>
       <c r="O9">
-        <v>0.1859471084032545</v>
+        <v>0.2561512138485232</v>
       </c>
       <c r="P9">
-        <v>0.1859471084032545</v>
+        <v>0.2712062223493465</v>
       </c>
       <c r="Q9">
-        <v>1850.582501141027</v>
+        <v>171.4256452689643</v>
       </c>
       <c r="R9">
-        <v>1850.582501141027</v>
+        <v>1542.830807420679</v>
       </c>
       <c r="S9">
-        <v>0.09305787954080789</v>
+        <v>0.006233219229579924</v>
       </c>
       <c r="T9">
-        <v>0.09305787954080789</v>
+        <v>0.006655745887693468</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>296.268528431914</v>
+        <v>15.15975766666667</v>
       </c>
       <c r="H10">
-        <v>296.268528431914</v>
+        <v>45.479273</v>
       </c>
       <c r="I10">
-        <v>0.5004534909948573</v>
+        <v>0.02433413894835564</v>
       </c>
       <c r="J10">
-        <v>0.5004534909948573</v>
+        <v>0.02454127279985509</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.1111386260584</v>
+        <v>9.634942000000001</v>
       </c>
       <c r="N10">
-        <v>5.1111386260584</v>
+        <v>28.904826</v>
       </c>
       <c r="O10">
-        <v>0.1521542748261263</v>
+        <v>0.2182538880119837</v>
       </c>
       <c r="P10">
-        <v>0.1521542748261263</v>
+        <v>0.2310815224783236</v>
       </c>
       <c r="Q10">
-        <v>1514.269519353837</v>
+        <v>146.0633858523887</v>
       </c>
       <c r="R10">
-        <v>1514.269519353837</v>
+        <v>1314.570472671498</v>
       </c>
       <c r="S10">
-        <v>0.07614613800652585</v>
+        <v>0.005311020436902463</v>
       </c>
       <c r="T10">
-        <v>0.07614613800652585</v>
+        <v>0.005671034682146386</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>296.268528431914</v>
+        <v>15.15975766666667</v>
       </c>
       <c r="H11">
-        <v>296.268528431914</v>
+        <v>45.479273</v>
       </c>
       <c r="I11">
-        <v>0.5004534909948573</v>
+        <v>0.02433413894835564</v>
       </c>
       <c r="J11">
-        <v>0.5004534909948573</v>
+        <v>0.02454127279985509</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.05220801221064</v>
+        <v>7.351732999999999</v>
       </c>
       <c r="N11">
-        <v>7.05220801221064</v>
+        <v>14.703466</v>
       </c>
       <c r="O11">
-        <v>0.2099382690483589</v>
+        <v>0.1665338837406602</v>
       </c>
       <c r="P11">
-        <v>0.2099382690483589</v>
+        <v>0.1175478208721362</v>
       </c>
       <c r="Q11">
-        <v>2089.3472899734</v>
+        <v>111.4504907100363</v>
       </c>
       <c r="R11">
-        <v>2089.3472899734</v>
+        <v>668.7029442602179</v>
       </c>
       <c r="S11">
-        <v>0.1050643396386688</v>
+        <v>0.004052458666554531</v>
       </c>
       <c r="T11">
-        <v>0.1050643396386688</v>
+        <v>0.002884773139051596</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>276.077902693461</v>
+        <v>306.75059</v>
       </c>
       <c r="H12">
-        <v>276.077902693461</v>
+        <v>920.2517700000001</v>
       </c>
       <c r="I12">
-        <v>0.4663477113845145</v>
+        <v>0.4923898945933068</v>
       </c>
       <c r="J12">
-        <v>0.4663477113845145</v>
+        <v>0.4965811509810085</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.9416243822078</v>
+        <v>8.193219999999998</v>
       </c>
       <c r="N12">
-        <v>7.9416243822078</v>
+        <v>24.57966</v>
       </c>
       <c r="O12">
-        <v>0.2364154422765415</v>
+        <v>0.1855955251559941</v>
       </c>
       <c r="P12">
-        <v>0.2364154422765415</v>
+        <v>0.1965036999288476</v>
       </c>
       <c r="Q12">
-        <v>2192.507003419182</v>
+        <v>2513.2750689998</v>
       </c>
       <c r="R12">
-        <v>2192.507003419182</v>
+        <v>22619.4756209982</v>
       </c>
       <c r="S12">
-        <v>0.1102518004416229</v>
+        <v>0.09138536106854936</v>
       </c>
       <c r="T12">
-        <v>0.1102518004416229</v>
+        <v>0.09758003348269383</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>276.077902693461</v>
+        <v>306.75059</v>
       </c>
       <c r="H13">
-        <v>276.077902693461</v>
+        <v>920.2517700000001</v>
       </c>
       <c r="I13">
-        <v>0.4663477113845145</v>
+        <v>0.4923898945933068</v>
       </c>
       <c r="J13">
-        <v>0.4663477113845145</v>
+        <v>0.4965811509810085</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.24054511864789</v>
+        <v>7.657732666666667</v>
       </c>
       <c r="N13">
-        <v>7.24054511864789</v>
+        <v>22.973198</v>
       </c>
       <c r="O13">
-        <v>0.2155449054457187</v>
+        <v>0.1734654892428388</v>
       </c>
       <c r="P13">
-        <v>0.2155449054457187</v>
+        <v>0.1836607343713461</v>
       </c>
       <c r="Q13">
-        <v>1998.954510713686</v>
+        <v>2349.014013562274</v>
       </c>
       <c r="R13">
-        <v>1998.954510713686</v>
+        <v>21141.12612206046</v>
       </c>
       <c r="S13">
-        <v>0.1005188733552025</v>
+        <v>0.08541265396385778</v>
       </c>
       <c r="T13">
-        <v>0.1005188733552025</v>
+        <v>0.09120245886414031</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>276.077902693461</v>
+        <v>306.75059</v>
       </c>
       <c r="H14">
-        <v>276.077902693461</v>
+        <v>920.2517700000001</v>
       </c>
       <c r="I14">
-        <v>0.4663477113845145</v>
+        <v>0.4923898945933068</v>
       </c>
       <c r="J14">
-        <v>0.4663477113845145</v>
+        <v>0.4965811509810085</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.24630132311307</v>
+        <v>11.307941</v>
       </c>
       <c r="N14">
-        <v>6.24630132311307</v>
+        <v>33.923823</v>
       </c>
       <c r="O14">
-        <v>0.1859471084032545</v>
+        <v>0.2561512138485232</v>
       </c>
       <c r="P14">
-        <v>0.1859471084032545</v>
+        <v>0.2712062223493465</v>
       </c>
       <c r="Q14">
-        <v>1724.465768876447</v>
+        <v>3468.71757343519</v>
       </c>
       <c r="R14">
-        <v>1724.465768876447</v>
+        <v>31218.45816091671</v>
       </c>
       <c r="S14">
-        <v>0.08671600844242598</v>
+        <v>0.1261262691868219</v>
       </c>
       <c r="T14">
-        <v>0.08671600844242598</v>
+        <v>0.1346758980474498</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>276.077902693461</v>
+        <v>306.75059</v>
       </c>
       <c r="H15">
-        <v>276.077902693461</v>
+        <v>920.2517700000001</v>
       </c>
       <c r="I15">
-        <v>0.4663477113845145</v>
+        <v>0.4923898945933068</v>
       </c>
       <c r="J15">
-        <v>0.4663477113845145</v>
+        <v>0.4965811509810085</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.1111386260584</v>
+        <v>9.634942000000001</v>
       </c>
       <c r="N15">
-        <v>5.1111386260584</v>
+        <v>28.904826</v>
       </c>
       <c r="O15">
-        <v>0.1521542748261263</v>
+        <v>0.2182538880119837</v>
       </c>
       <c r="P15">
-        <v>0.1521542748261263</v>
+        <v>0.2310815224783236</v>
       </c>
       <c r="Q15">
-        <v>1411.072432257741</v>
+        <v>2955.524143115781</v>
       </c>
       <c r="R15">
-        <v>1411.072432257741</v>
+        <v>26599.71728804202</v>
       </c>
       <c r="S15">
-        <v>0.07095679784253447</v>
+        <v>0.1074660089128</v>
       </c>
       <c r="T15">
-        <v>0.07095679784253447</v>
+        <v>0.1147507284027297</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>276.077902693461</v>
+        <v>306.75059</v>
       </c>
       <c r="H16">
-        <v>276.077902693461</v>
+        <v>920.2517700000001</v>
       </c>
       <c r="I16">
-        <v>0.4663477113845145</v>
+        <v>0.4923898945933068</v>
       </c>
       <c r="J16">
-        <v>0.4663477113845145</v>
+        <v>0.4965811509810085</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.05220801221064</v>
+        <v>7.351732999999999</v>
       </c>
       <c r="N16">
-        <v>7.05220801221064</v>
+        <v>14.703466</v>
       </c>
       <c r="O16">
-        <v>0.2099382690483589</v>
+        <v>0.1665338837406602</v>
       </c>
       <c r="P16">
-        <v>0.2099382690483589</v>
+        <v>0.1175478208721362</v>
       </c>
       <c r="Q16">
-        <v>1946.958797369135</v>
+        <v>2255.14843527247</v>
       </c>
       <c r="R16">
-        <v>1946.958797369135</v>
+        <v>13530.89061163482</v>
       </c>
       <c r="S16">
-        <v>0.09790423130272864</v>
+        <v>0.0819996014612777</v>
       </c>
       <c r="T16">
-        <v>0.09790423130272864</v>
+        <v>0.05837203218399483</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.15124799851859</v>
+        <v>282.545044</v>
       </c>
       <c r="H17">
-        <v>6.15124799851859</v>
+        <v>847.635132</v>
       </c>
       <c r="I17">
-        <v>0.01039061945299132</v>
+        <v>0.4535356376430155</v>
       </c>
       <c r="J17">
-        <v>0.01039061945299132</v>
+        <v>0.4573961639438075</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.9416243822078</v>
+        <v>8.193219999999998</v>
       </c>
       <c r="N17">
-        <v>7.9416243822078</v>
+        <v>24.57966</v>
       </c>
       <c r="O17">
-        <v>0.2364154422765415</v>
+        <v>0.1855955251559941</v>
       </c>
       <c r="P17">
-        <v>0.2364154422765415</v>
+        <v>0.1965036999288476</v>
       </c>
       <c r="Q17">
-        <v>48.85090108604216</v>
+        <v>2314.95370540168</v>
       </c>
       <c r="R17">
-        <v>48.85090108604216</v>
+        <v>20834.58334861512</v>
       </c>
       <c r="S17">
-        <v>0.002456502893506178</v>
+        <v>0.08417418484531412</v>
       </c>
       <c r="T17">
-        <v>0.002456502893506178</v>
+        <v>0.08988003854821991</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.15124799851859</v>
+        <v>282.545044</v>
       </c>
       <c r="H18">
-        <v>6.15124799851859</v>
+        <v>847.635132</v>
       </c>
       <c r="I18">
-        <v>0.01039061945299132</v>
+        <v>0.4535356376430155</v>
       </c>
       <c r="J18">
-        <v>0.01039061945299132</v>
+        <v>0.4573961639438075</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>7.24054511864789</v>
+        <v>7.657732666666667</v>
       </c>
       <c r="N18">
-        <v>7.24054511864789</v>
+        <v>22.973198</v>
       </c>
       <c r="O18">
-        <v>0.2155449054457187</v>
+        <v>0.1734654892428388</v>
       </c>
       <c r="P18">
-        <v>0.2155449054457187</v>
+        <v>0.1836607343713461</v>
       </c>
       <c r="Q18">
-        <v>44.53838866926638</v>
+        <v>2163.654413243571</v>
       </c>
       <c r="R18">
-        <v>44.53838866926638</v>
+        <v>19472.88971919214</v>
       </c>
       <c r="S18">
-        <v>0.002239645087517459</v>
+        <v>0.07867278127280854</v>
       </c>
       <c r="T18">
-        <v>0.002239645087517459</v>
+        <v>0.08400571536855631</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.15124799851859</v>
+        <v>282.545044</v>
       </c>
       <c r="H19">
-        <v>6.15124799851859</v>
+        <v>847.635132</v>
       </c>
       <c r="I19">
-        <v>0.01039061945299132</v>
+        <v>0.4535356376430155</v>
       </c>
       <c r="J19">
-        <v>0.01039061945299132</v>
+        <v>0.4573961639438075</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.24630132311307</v>
+        <v>11.307941</v>
       </c>
       <c r="N19">
-        <v>6.24630132311307</v>
+        <v>33.923823</v>
       </c>
       <c r="O19">
-        <v>0.1859471084032545</v>
+        <v>0.2561512138485232</v>
       </c>
       <c r="P19">
-        <v>0.1859471084032545</v>
+        <v>0.2712062223493465</v>
       </c>
       <c r="Q19">
-        <v>38.4225485119433</v>
+        <v>3195.002687394404</v>
       </c>
       <c r="R19">
-        <v>38.4225485119433</v>
+        <v>28755.02418654964</v>
       </c>
       <c r="S19">
-        <v>0.001932105641802342</v>
+        <v>0.1161737041058224</v>
       </c>
       <c r="T19">
-        <v>0.001932105641802342</v>
+        <v>0.1240486857402824</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.15124799851859</v>
+        <v>282.545044</v>
       </c>
       <c r="H20">
-        <v>6.15124799851859</v>
+        <v>847.635132</v>
       </c>
       <c r="I20">
-        <v>0.01039061945299132</v>
+        <v>0.4535356376430155</v>
       </c>
       <c r="J20">
-        <v>0.01039061945299132</v>
+        <v>0.4573961639438075</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.1111386260584</v>
+        <v>9.634942000000001</v>
       </c>
       <c r="N20">
-        <v>5.1111386260584</v>
+        <v>28.904826</v>
       </c>
       <c r="O20">
-        <v>0.1521542748261263</v>
+        <v>0.2182538880119837</v>
       </c>
       <c r="P20">
-        <v>0.1521542748261263</v>
+        <v>0.2310815224783236</v>
       </c>
       <c r="Q20">
-        <v>31.43988124369279</v>
+        <v>2722.305111327448</v>
       </c>
       <c r="R20">
-        <v>31.43988124369279</v>
+        <v>24500.74600194703</v>
       </c>
       <c r="S20">
-        <v>0.001580977167864136</v>
+        <v>0.09898591626758231</v>
       </c>
       <c r="T20">
-        <v>0.001580977167864136</v>
+        <v>0.1056958019398799</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>282.545044</v>
+      </c>
+      <c r="H21">
+        <v>847.635132</v>
+      </c>
+      <c r="I21">
+        <v>0.4535356376430155</v>
+      </c>
+      <c r="J21">
+        <v>0.4573961639438075</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>7.351732999999999</v>
+      </c>
+      <c r="N21">
+        <v>14.703466</v>
+      </c>
+      <c r="O21">
+        <v>0.1665338837406602</v>
+      </c>
+      <c r="P21">
+        <v>0.1175478208721362</v>
+      </c>
+      <c r="Q21">
+        <v>2077.195723961252</v>
+      </c>
+      <c r="R21">
+        <v>12463.17434376751</v>
+      </c>
+      <c r="S21">
+        <v>0.07552905115148816</v>
+      </c>
+      <c r="T21">
+        <v>0.05376592234686895</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>15.774352</v>
+      </c>
+      <c r="H22">
+        <v>31.548704</v>
+      </c>
+      <c r="I22">
+        <v>0.02532067344534763</v>
+      </c>
+      <c r="J22">
+        <v>0.01702413649721005</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>8.193219999999998</v>
+      </c>
+      <c r="N22">
+        <v>24.57966</v>
+      </c>
+      <c r="O22">
+        <v>0.1855955251559941</v>
+      </c>
+      <c r="P22">
+        <v>0.1965036999288476</v>
+      </c>
+      <c r="Q22">
+        <v>129.24273629344</v>
+      </c>
+      <c r="R22">
+        <v>775.45641776064</v>
+      </c>
+      <c r="S22">
+        <v>0.004699403685392727</v>
+      </c>
+      <c r="T22">
+        <v>0.003345305809795505</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>15.774352</v>
+      </c>
+      <c r="H23">
+        <v>31.548704</v>
+      </c>
+      <c r="I23">
+        <v>0.02532067344534763</v>
+      </c>
+      <c r="J23">
+        <v>0.01702413649721005</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>7.657732666666667</v>
+      </c>
+      <c r="N23">
+        <v>22.973198</v>
+      </c>
+      <c r="O23">
+        <v>0.1734654892428388</v>
+      </c>
+      <c r="P23">
+        <v>0.1836607343713461</v>
+      </c>
+      <c r="Q23">
+        <v>120.7957706058987</v>
+      </c>
+      <c r="R23">
+        <v>724.774623635392</v>
+      </c>
+      <c r="S23">
+        <v>0.004392263007155382</v>
+      </c>
+      <c r="T23">
+        <v>0.003126665411115633</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>15.774352</v>
+      </c>
+      <c r="H24">
+        <v>31.548704</v>
+      </c>
+      <c r="I24">
+        <v>0.02532067344534763</v>
+      </c>
+      <c r="J24">
+        <v>0.01702413649721005</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>11.307941</v>
+      </c>
+      <c r="N24">
+        <v>33.923823</v>
+      </c>
+      <c r="O24">
+        <v>0.2561512138485232</v>
+      </c>
+      <c r="P24">
+        <v>0.2712062223493465</v>
+      </c>
+      <c r="Q24">
+        <v>178.375441729232</v>
+      </c>
+      <c r="R24">
+        <v>1070.252650375392</v>
+      </c>
+      <c r="S24">
+        <v>0.006485921238487864</v>
+      </c>
+      <c r="T24">
+        <v>0.004617051748167973</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>6.15124799851859</v>
-      </c>
-      <c r="H21">
-        <v>6.15124799851859</v>
-      </c>
-      <c r="I21">
-        <v>0.01039061945299132</v>
-      </c>
-      <c r="J21">
-        <v>0.01039061945299132</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>7.05220801221064</v>
-      </c>
-      <c r="N21">
-        <v>7.05220801221064</v>
-      </c>
-      <c r="O21">
-        <v>0.2099382690483589</v>
-      </c>
-      <c r="P21">
-        <v>0.2099382690483589</v>
-      </c>
-      <c r="Q21">
-        <v>43.37988042024747</v>
-      </c>
-      <c r="R21">
-        <v>43.37988042024747</v>
-      </c>
-      <c r="S21">
-        <v>0.002181388662301203</v>
-      </c>
-      <c r="T21">
-        <v>0.002181388662301203</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>15.774352</v>
+      </c>
+      <c r="H25">
+        <v>31.548704</v>
+      </c>
+      <c r="I25">
+        <v>0.02532067344534763</v>
+      </c>
+      <c r="J25">
+        <v>0.01702413649721005</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>9.634942000000001</v>
+      </c>
+      <c r="N25">
+        <v>28.904826</v>
+      </c>
+      <c r="O25">
+        <v>0.2182538880119837</v>
+      </c>
+      <c r="P25">
+        <v>0.2310815224783236</v>
+      </c>
+      <c r="Q25">
+        <v>151.984966607584</v>
+      </c>
+      <c r="R25">
+        <v>911.909799645504</v>
+      </c>
+      <c r="S25">
+        <v>0.00552633542652891</v>
+      </c>
+      <c r="T25">
+        <v>0.003933963380654093</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>15.774352</v>
+      </c>
+      <c r="H26">
+        <v>31.548704</v>
+      </c>
+      <c r="I26">
+        <v>0.02532067344534763</v>
+      </c>
+      <c r="J26">
+        <v>0.01702413649721005</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>7.351732999999999</v>
+      </c>
+      <c r="N26">
+        <v>14.703466</v>
+      </c>
+      <c r="O26">
+        <v>0.1665338837406602</v>
+      </c>
+      <c r="P26">
+        <v>0.1175478208721362</v>
+      </c>
+      <c r="Q26">
+        <v>115.968824152016</v>
+      </c>
+      <c r="R26">
+        <v>463.875296608064</v>
+      </c>
+      <c r="S26">
+        <v>0.004216750087782745</v>
+      </c>
+      <c r="T26">
+        <v>0.002001150147476843</v>
       </c>
     </row>
   </sheetData>
